--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Igf2-Insr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Igf2-Insr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.7696748226313</v>
+        <v>15.466502</v>
       </c>
       <c r="H2">
-        <v>13.7696748226313</v>
+        <v>46.399506</v>
       </c>
       <c r="I2">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593624</v>
       </c>
       <c r="J2">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593625</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N2">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O2">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P2">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q2">
-        <v>314.2915020206248</v>
+        <v>358.6136568049494</v>
       </c>
       <c r="R2">
-        <v>314.2915020206248</v>
+        <v>3227.522911244545</v>
       </c>
       <c r="S2">
-        <v>0.09134627362699242</v>
+        <v>0.08783948920980653</v>
       </c>
       <c r="T2">
-        <v>0.09134627362699242</v>
+        <v>0.08783948920980653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.7696748226313</v>
+        <v>15.466502</v>
       </c>
       <c r="H3">
-        <v>13.7696748226313</v>
+        <v>46.399506</v>
       </c>
       <c r="I3">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593624</v>
       </c>
       <c r="J3">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593625</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N3">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O3">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P3">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q3">
-        <v>97.30340370325456</v>
+        <v>111.4901301574807</v>
       </c>
       <c r="R3">
-        <v>97.30340370325456</v>
+        <v>1003.411171417326</v>
       </c>
       <c r="S3">
-        <v>0.02828044437209097</v>
+        <v>0.02730859770433815</v>
       </c>
       <c r="T3">
-        <v>0.02828044437209097</v>
+        <v>0.02730859770433814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.7696748226313</v>
+        <v>15.466502</v>
       </c>
       <c r="H4">
-        <v>13.7696748226313</v>
+        <v>46.399506</v>
       </c>
       <c r="I4">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593624</v>
       </c>
       <c r="J4">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593625</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N4">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O4">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P4">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q4">
-        <v>79.45213720718104</v>
+        <v>89.92526375139066</v>
       </c>
       <c r="R4">
-        <v>79.45213720718104</v>
+        <v>809.327373762516</v>
       </c>
       <c r="S4">
-        <v>0.02309211868254788</v>
+        <v>0.02202645963166863</v>
       </c>
       <c r="T4">
-        <v>0.02309211868254788</v>
+        <v>0.02202645963166863</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.7696748226313</v>
+        <v>15.466502</v>
       </c>
       <c r="H5">
-        <v>13.7696748226313</v>
+        <v>46.399506</v>
       </c>
       <c r="I5">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593624</v>
       </c>
       <c r="J5">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593625</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N5">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O5">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P5">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q5">
-        <v>104.1673031271631</v>
+        <v>119.0284155887693</v>
       </c>
       <c r="R5">
-        <v>104.1673031271631</v>
+        <v>1071.255740298924</v>
       </c>
       <c r="S5">
-        <v>0.03027538101814562</v>
+        <v>0.02915503921384896</v>
       </c>
       <c r="T5">
-        <v>0.03027538101814562</v>
+        <v>0.02915503921384896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.7696748226313</v>
+        <v>15.466502</v>
       </c>
       <c r="H6">
-        <v>13.7696748226313</v>
+        <v>46.399506</v>
       </c>
       <c r="I6">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593624</v>
       </c>
       <c r="J6">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593625</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N6">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O6">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P6">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q6">
-        <v>43.28903376908492</v>
+        <v>51.99608552620333</v>
       </c>
       <c r="R6">
-        <v>43.28903376908492</v>
+        <v>467.96476973583</v>
       </c>
       <c r="S6">
-        <v>0.01258160624228221</v>
+        <v>0.01273601689970018</v>
       </c>
       <c r="T6">
-        <v>0.01258160624228221</v>
+        <v>0.01273601689970018</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.2873258228032</v>
+        <v>40.60794566666667</v>
       </c>
       <c r="H7">
-        <v>39.2873258228032</v>
+        <v>121.823837</v>
       </c>
       <c r="I7">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="J7">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N7">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O7">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P7">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q7">
-        <v>896.7294291458751</v>
+        <v>941.5551034655432</v>
       </c>
       <c r="R7">
-        <v>896.7294291458751</v>
+        <v>8473.995931189889</v>
       </c>
       <c r="S7">
-        <v>0.2606271288835561</v>
+        <v>0.2306262401944264</v>
       </c>
       <c r="T7">
-        <v>0.2606271288835561</v>
+        <v>0.2306262401944264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.2873258228032</v>
+        <v>40.60794566666667</v>
       </c>
       <c r="H8">
-        <v>39.2873258228032</v>
+        <v>121.823837</v>
       </c>
       <c r="I8">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="J8">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N8">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O8">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P8">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q8">
-        <v>277.6238781379592</v>
+        <v>292.7219837946919</v>
       </c>
       <c r="R8">
-        <v>277.6238781379592</v>
+        <v>2634.497854152227</v>
       </c>
       <c r="S8">
-        <v>0.08068912641523671</v>
+        <v>0.07169986153369531</v>
       </c>
       <c r="T8">
-        <v>0.08068912641523671</v>
+        <v>0.0716998615336953</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.2873258228032</v>
+        <v>40.60794566666667</v>
       </c>
       <c r="H9">
-        <v>39.2873258228032</v>
+        <v>121.823837</v>
       </c>
       <c r="I9">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="J9">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N9">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O9">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P9">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q9">
-        <v>226.691046955319</v>
+        <v>236.1025281913869</v>
       </c>
       <c r="R9">
-        <v>226.691046955319</v>
+        <v>2124.922753722482</v>
       </c>
       <c r="S9">
-        <v>0.06588591250746281</v>
+        <v>0.05783138785691985</v>
       </c>
       <c r="T9">
-        <v>0.06588591250746281</v>
+        <v>0.05783138785691984</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.2873258228032</v>
+        <v>40.60794566666667</v>
       </c>
       <c r="H10">
-        <v>39.2873258228032</v>
+        <v>121.823837</v>
       </c>
       <c r="I10">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="J10">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N10">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O10">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P10">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q10">
-        <v>297.2078012556522</v>
+        <v>312.5140664009331</v>
       </c>
       <c r="R10">
-        <v>297.2078012556522</v>
+        <v>2812.626597608398</v>
       </c>
       <c r="S10">
-        <v>0.08638103468605395</v>
+        <v>0.07654777067920818</v>
       </c>
       <c r="T10">
-        <v>0.08638103468605395</v>
+        <v>0.07654777067920818</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.2873258228032</v>
+        <v>40.60794566666667</v>
       </c>
       <c r="H11">
-        <v>39.2873258228032</v>
+        <v>121.823837</v>
       </c>
       <c r="I11">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="J11">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N11">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O11">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P11">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q11">
-        <v>123.511295375338</v>
+        <v>136.5178898193928</v>
       </c>
       <c r="R11">
-        <v>123.511295375338</v>
+        <v>1228.661008374535</v>
       </c>
       <c r="S11">
-        <v>0.03589755532950913</v>
+        <v>0.03343894322535072</v>
       </c>
       <c r="T11">
-        <v>0.03589755532950913</v>
+        <v>0.03343894322535071</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>21.1427228429575</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H12">
-        <v>21.1427228429575</v>
+        <v>0.124606</v>
       </c>
       <c r="I12">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="J12">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N12">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O12">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P12">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q12">
-        <v>482.5806131744999</v>
+        <v>0.963057954104889</v>
       </c>
       <c r="R12">
-        <v>482.5806131744999</v>
+        <v>8.667521586944</v>
       </c>
       <c r="S12">
-        <v>0.1402581376038187</v>
+        <v>0.0002358931880110351</v>
       </c>
       <c r="T12">
-        <v>0.1402581376038187</v>
+        <v>0.0002358931880110351</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>21.1427228429575</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H13">
-        <v>21.1427228429575</v>
+        <v>0.124606</v>
       </c>
       <c r="I13">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="J13">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N13">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O13">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P13">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q13">
-        <v>149.4050457018117</v>
+        <v>0.2994070488251112</v>
       </c>
       <c r="R13">
-        <v>149.4050457018117</v>
+        <v>2.694663439426</v>
       </c>
       <c r="S13">
-        <v>0.04342336365504213</v>
+        <v>7.33373136676662E-05</v>
       </c>
       <c r="T13">
-        <v>0.04342336365504213</v>
+        <v>7.333731366766617E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>21.1427228429575</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H14">
-        <v>21.1427228429575</v>
+        <v>0.124606</v>
       </c>
       <c r="I14">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="J14">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N14">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O14">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P14">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q14">
-        <v>121.995220503766</v>
+        <v>0.2414945412351111</v>
       </c>
       <c r="R14">
-        <v>121.995220503766</v>
+        <v>2.173450871116</v>
       </c>
       <c r="S14">
-        <v>0.03545692047566399</v>
+        <v>5.915211745710615E-05</v>
       </c>
       <c r="T14">
-        <v>0.03545692047566399</v>
+        <v>5.915211745710615E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>21.1427228429575</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H15">
-        <v>21.1427228429575</v>
+        <v>0.124606</v>
       </c>
       <c r="I15">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="J15">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N15">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O15">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P15">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q15">
-        <v>159.9442577755142</v>
+        <v>0.3196511349248889</v>
       </c>
       <c r="R15">
-        <v>159.9442577755142</v>
+        <v>2.876860214324</v>
       </c>
       <c r="S15">
-        <v>0.04648650008637381</v>
+        <v>7.829593738090366E-05</v>
       </c>
       <c r="T15">
-        <v>0.04648650008637381</v>
+        <v>7.829593738090366E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04153533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.124606</v>
+      </c>
+      <c r="I16">
+        <v>0.0004808811646609453</v>
+      </c>
+      <c r="J16">
+        <v>0.0004808811646609453</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.361851666666666</v>
+      </c>
+      <c r="N16">
+        <v>10.085555</v>
+      </c>
+      <c r="O16">
+        <v>0.07112486547138804</v>
+      </c>
+      <c r="P16">
+        <v>0.07112486547138802</v>
+      </c>
+      <c r="Q16">
+        <v>0.1396356295922222</v>
+      </c>
+      <c r="R16">
+        <v>1.25672066633</v>
+      </c>
+      <c r="S16">
+        <v>3.420260814423413E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.420260814423412E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>30.25740066666667</v>
+      </c>
+      <c r="H17">
+        <v>90.77220199999999</v>
+      </c>
+      <c r="I17">
+        <v>0.3503093126863761</v>
+      </c>
+      <c r="J17">
+        <v>0.3503093126863762</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>23.18647466666667</v>
+      </c>
+      <c r="N17">
+        <v>69.55942400000001</v>
+      </c>
+      <c r="O17">
+        <v>0.4905436214732101</v>
+      </c>
+      <c r="P17">
+        <v>0.49054362147321</v>
+      </c>
+      <c r="Q17">
+        <v>701.5624540368498</v>
+      </c>
+      <c r="R17">
+        <v>6314.062086331648</v>
+      </c>
+      <c r="S17">
+        <v>0.1718419988809661</v>
+      </c>
+      <c r="T17">
+        <v>0.171841998880966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>30.25740066666667</v>
+      </c>
+      <c r="H18">
+        <v>90.77220199999999</v>
+      </c>
+      <c r="I18">
+        <v>0.3503093126863761</v>
+      </c>
+      <c r="J18">
+        <v>0.3503093126863762</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.208490333333334</v>
+      </c>
+      <c r="N18">
+        <v>21.625471</v>
+      </c>
+      <c r="O18">
+        <v>0.1525061055767782</v>
+      </c>
+      <c r="P18">
+        <v>0.1525061055767782</v>
+      </c>
+      <c r="Q18">
+        <v>218.1101802174602</v>
+      </c>
+      <c r="R18">
+        <v>1962.991621957142</v>
+      </c>
+      <c r="S18">
+        <v>0.0534243090250771</v>
+      </c>
+      <c r="T18">
+        <v>0.05342430902507708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>30.25740066666667</v>
+      </c>
+      <c r="H19">
+        <v>90.77220199999999</v>
+      </c>
+      <c r="I19">
+        <v>0.3503093126863761</v>
+      </c>
+      <c r="J19">
+        <v>0.3503093126863762</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.814195333333333</v>
+      </c>
+      <c r="N19">
+        <v>17.442586</v>
+      </c>
+      <c r="O19">
+        <v>0.1230077653359797</v>
+      </c>
+      <c r="P19">
+        <v>0.1230077653359796</v>
+      </c>
+      <c r="Q19">
+        <v>175.9224377549302</v>
+      </c>
+      <c r="R19">
+        <v>1583.301939794372</v>
+      </c>
+      <c r="S19">
+        <v>0.04309076572993407</v>
+      </c>
+      <c r="T19">
+        <v>0.04309076572993407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>21.1427228429575</v>
-      </c>
-      <c r="H16">
-        <v>21.1427228429575</v>
-      </c>
-      <c r="I16">
-        <v>0.2849434182361222</v>
-      </c>
-      <c r="J16">
-        <v>0.2849434182361222</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.14379492084568</v>
-      </c>
-      <c r="N16">
-        <v>3.14379492084568</v>
-      </c>
-      <c r="O16">
-        <v>0.0677976579870149</v>
-      </c>
-      <c r="P16">
-        <v>0.0677976579870149</v>
-      </c>
-      <c r="Q16">
-        <v>66.46838468653772</v>
-      </c>
-      <c r="R16">
-        <v>66.46838468653772</v>
-      </c>
-      <c r="S16">
-        <v>0.01931849641522355</v>
-      </c>
-      <c r="T16">
-        <v>0.01931849641522355</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>30.25740066666667</v>
+      </c>
+      <c r="H20">
+        <v>90.77220199999999</v>
+      </c>
+      <c r="I20">
+        <v>0.3503093126863761</v>
+      </c>
+      <c r="J20">
+        <v>0.3503093126863762</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>7.695884666666667</v>
+      </c>
+      <c r="N20">
+        <v>23.087654</v>
+      </c>
+      <c r="O20">
+        <v>0.162817642142644</v>
+      </c>
+      <c r="P20">
+        <v>0.162817642142644</v>
+      </c>
+      <c r="Q20">
+        <v>232.8574658437898</v>
+      </c>
+      <c r="R20">
+        <v>2095.717192594108</v>
+      </c>
+      <c r="S20">
+        <v>0.05703653631220598</v>
+      </c>
+      <c r="T20">
+        <v>0.05703653631220597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>30.25740066666667</v>
+      </c>
+      <c r="H21">
+        <v>90.77220199999999</v>
+      </c>
+      <c r="I21">
+        <v>0.3503093126863761</v>
+      </c>
+      <c r="J21">
+        <v>0.3503093126863762</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.361851666666666</v>
+      </c>
+      <c r="N21">
+        <v>10.085555</v>
+      </c>
+      <c r="O21">
+        <v>0.07112486547138804</v>
+      </c>
+      <c r="P21">
+        <v>0.07112486547138802</v>
+      </c>
+      <c r="Q21">
+        <v>101.7208928602344</v>
+      </c>
+      <c r="R21">
+        <v>915.4880357421099</v>
+      </c>
+      <c r="S21">
+        <v>0.02491570273819291</v>
+      </c>
+      <c r="T21">
+        <v>0.0249157027381929</v>
       </c>
     </row>
   </sheetData>
